--- a/reports/iteration_stats_rede_3.xlsx
+++ b/reports/iteration_stats_rede_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\annotation_loop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3676E2F-822D-42A7-9EFB-AECA0C3CB13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF3BB6-C9D0-4E10-858D-45DD9AFDFEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
   <si>
     <t>iteration</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>merge annot</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>manual %</t>
+  </si>
+  <si>
+    <t>auto %</t>
+  </si>
+  <si>
+    <t>unlabeled</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>annotated %</t>
+  </si>
+  <si>
+    <t>rede3_enterramento</t>
   </si>
 </sst>
 </file>
@@ -135,7 +156,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="72">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -146,6 +197,15 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -158,6 +218,12 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -170,6 +236,18 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -185,9 +263,39 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
@@ -203,9 +311,27 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -213,6 +339,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1289,18 +1421,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0E9F608-9F8F-4067-ACBF-968268D4C68B}" name="Tabela1" displayName="Tabela1" ref="B2:G6" totalsRowCount="1">
-  <autoFilter ref="B2:G5" xr:uid="{DCB1C659-1010-4CBB-9978-4388CEB38DCF}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0E9F608-9F8F-4067-ACBF-968268D4C68B}" name="Tabela1" displayName="Tabela1" ref="B2:K6" totalsRowCount="1">
+  <autoFilter ref="B2:K5" xr:uid="{DCB1C659-1010-4CBB-9978-4388CEB38DCF}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D9059A50-A879-4ED2-BDFA-C4D712E5AB80}" name="iteration"/>
-    <tableColumn id="2" xr3:uid="{09CF3096-A106-40F0-B021-80D4AC1A5F9A}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
-      <totalsRowFormula>SUM(Tabela1[imagens manuais])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{3DAF7199-B8A4-4231-9748-CE1C9811C247}" name="imagens não anotadas" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{DEA33ADC-B51C-4FDE-847F-F697D5667262}" name="tempo de anotação (m)" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{09CF3096-A106-40F0-B021-80D4AC1A5F9A}" name="manual" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
+      <totalsRowFormula>SUM(Tabela1[manual])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{3DAF7199-B8A4-4231-9748-CE1C9811C247}" name="unlabeled" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{DEA33ADC-B51C-4FDE-847F-F697D5667262}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+      <totalsRowFormula>SUM(Tabela1[tempo de anotação (m)])</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{AF75D8B3-C08D-44B7-B6CB-67270E61AD76}" name="diff"/>
-    <tableColumn id="6" xr3:uid="{D42DDA13-A0BD-4D23-A233-83F8E7D5BCBB}" name="diff (%)" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{D42DDA13-A0BD-4D23-A233-83F8E7D5BCBB}" name="diff (%)" dataDxfId="43">
       <calculatedColumnFormula>Tabela1[[#This Row],[diff]]/D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{223B7AF3-70C9-43FD-B1AA-7B1552724620}" name="auto" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela1[auto])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{73BDB86D-CA0E-4ED5-B0BB-1C35817E8CDC}" name="manual %" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
+      <calculatedColumnFormula>Tabela1[[#This Row],[manual]]/$D$3</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1[manual %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{028349A9-DF2A-41D3-BAB9-6DAA0D05C3B4}" name="auto %" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+      <calculatedColumnFormula>Tabela1[[#This Row],[auto]]/$D$3</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1[auto %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{45472F33-8ED9-472E-85D9-C00E300F050F}" name="annotated %" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
+      <calculatedColumnFormula>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$D$3</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1[annotated %])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1312,13 +1461,13 @@
   <autoFilter ref="B9:G12" xr:uid="{BF9D1C74-518D-4566-80FC-B71212D79C51}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{212CCDC4-ABE0-4947-8E43-6F20C5BFB36F}" name="iteration"/>
-    <tableColumn id="2" xr3:uid="{8A66F363-A111-41F8-98C0-FD8D008B3800}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="2" xr3:uid="{8A66F363-A111-41F8-98C0-FD8D008B3800}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <totalsRowFormula>SUM(Tabela13[imagens manuais])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E04CACF-0FE7-48B6-B3B6-210DEA1707B2}" name="imagens não anotadas" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{C3A9FB81-3B4A-4F9F-97BA-A9CF67041BED}" name="tempo de anotação (m)" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{0E04CACF-0FE7-48B6-B3B6-210DEA1707B2}" name="imagens não anotadas" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{C3A9FB81-3B4A-4F9F-97BA-A9CF67041BED}" name="tempo de anotação (m)" dataDxfId="67" totalsRowDxfId="66"/>
     <tableColumn id="5" xr3:uid="{8CD024EC-88EC-462D-AAC7-11F8A5D5E151}" name="diff"/>
-    <tableColumn id="6" xr3:uid="{F69E1B0D-23CC-40D5-A208-947F9A9D2A1E}" name="diff (%)" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{F69E1B0D-23CC-40D5-A208-947F9A9D2A1E}" name="diff (%)" dataDxfId="65">
       <calculatedColumnFormula>Tabela13[[#This Row],[diff]]/D9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1327,18 +1476,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A0356FB-105B-49D3-AC67-10C8220F21B7}" name="Tabela134" displayName="Tabela134" ref="B16:G23" totalsRowCount="1">
-  <autoFilter ref="B16:G22" xr:uid="{F3BC94FB-E889-44C7-9B34-442C4BBF2BD2}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A0356FB-105B-49D3-AC67-10C8220F21B7}" name="Tabela134" displayName="Tabela134" ref="B16:K23" totalsRowCount="1">
+  <autoFilter ref="B16:K22" xr:uid="{F3BC94FB-E889-44C7-9B34-442C4BBF2BD2}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3A4B4258-C0D9-4E2D-8088-B50EC53975CA}" name="iteration"/>
-    <tableColumn id="2" xr3:uid="{3DF94AAF-FCF1-41A4-85C6-E9A05FA2924C}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="2" xr3:uid="{3DF94AAF-FCF1-41A4-85C6-E9A05FA2924C}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="32">
       <totalsRowFormula>SUM(Tabela134[imagens manuais])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B27858BA-509A-4CA5-9646-89EAC4F0105C}" name="imagens não anotadas" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{235F28F6-B454-4222-A14D-4D9FB8DB972A}" name="tempo de anotação (m)" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B27858BA-509A-4CA5-9646-89EAC4F0105C}" name="imagens não anotadas" dataDxfId="55" totalsRowDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{235F28F6-B454-4222-A14D-4D9FB8DB972A}" name="tempo de anotação (m)" dataDxfId="54" totalsRowDxfId="30"/>
     <tableColumn id="5" xr3:uid="{A8AE80C7-468B-4A75-9C3C-B306FC70DE64}" name="diff"/>
-    <tableColumn id="6" xr3:uid="{6F65807D-AE00-4A66-A6A5-C9FAA125C499}" name="diff (%)" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{6F65807D-AE00-4A66-A6A5-C9FAA125C499}" name="diff (%)" dataDxfId="53">
       <calculatedColumnFormula>Tabela134[[#This Row],[diff]]/D16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3453D2AC-BAA6-4624-AF8A-B3DB99C995EF}" name="auto" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela134[auto])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{D34BD403-0E36-4A90-AD80-3349D353EAB1}" name="manual %" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="29">
+      <calculatedColumnFormula>C17/$D$17</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela134[manual %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B470E0ED-5F51-4271-BA99-6A44F8ED69F5}" name="auto %" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="28">
+      <calculatedColumnFormula>H17/$D$17</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela134[auto %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{FCF093D3-D806-4398-8A8F-CF57B89C1E5A}" name="annotated %" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="27">
+      <calculatedColumnFormula>(C17+H17)/$D$17</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela134[annotated %])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1346,18 +1510,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E54D1C61-8D95-4DA8-BA4A-E0607ACCAEC3}" name="Tabela1346" displayName="Tabela1346" ref="B27:G33" totalsRowCount="1">
-  <autoFilter ref="B27:G32" xr:uid="{A6C34C1F-1143-445C-8434-74723C01176E}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E54D1C61-8D95-4DA8-BA4A-E0607ACCAEC3}" name="Tabela1346" displayName="Tabela1346" ref="B27:K33" totalsRowCount="1">
+  <autoFilter ref="B27:K32" xr:uid="{A6C34C1F-1143-445C-8434-74723C01176E}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5559F87A-28D2-48AD-B6CE-75F9F8B8E5E7}" name="iteration"/>
-    <tableColumn id="2" xr3:uid="{3BCCC8DF-A7C3-4203-9E0A-536D07DEE6FD}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="2">
+    <tableColumn id="2" xr3:uid="{3BCCC8DF-A7C3-4203-9E0A-536D07DEE6FD}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="24">
       <totalsRowFormula>SUM(Tabela1346[imagens manuais])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{148CE426-ACDE-45A0-814C-F86B94B7D4C9}" name="imagens não anotadas" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{21554B67-6E36-4007-804F-A342F397A9EB}" name="tempo de anotação (m)" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{148CE426-ACDE-45A0-814C-F86B94B7D4C9}" name="imagens não anotadas" dataDxfId="63" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{21554B67-6E36-4007-804F-A342F397A9EB}" name="tempo de anotação (m)" dataDxfId="62" totalsRowDxfId="22"/>
     <tableColumn id="5" xr3:uid="{B9C99DED-9B07-4E4A-8B02-95A8E2CADF02}" name="diff"/>
-    <tableColumn id="6" xr3:uid="{416D7E7E-C12A-4361-A707-FB6A9EE7F564}" name="diff (%)" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{416D7E7E-C12A-4361-A707-FB6A9EE7F564}" name="diff (%)" dataDxfId="61">
       <calculatedColumnFormula>Tabela1346[[#This Row],[diff]]/D27</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3B2D0E0F-F9E8-4AE5-A212-20AACE64195E}" name="auto" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela1346[auto])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{10987B4C-02D7-4F47-BE92-E43C2C99508D}" name="manual %" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="8">
+      <calculatedColumnFormula>C28/$D$28</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1346[manual %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{156810A2-9267-4456-8130-9A1B47C05D28}" name="auto %" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="7">
+      <calculatedColumnFormula>H28/$D$28</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1346[auto %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{FB95E4D2-49C3-4636-8704-452F70D21930}" name="annotated %" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="6">
+      <calculatedColumnFormula>(C28+H28)/$D$28</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1346[annotated %])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1365,18 +1544,67 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{076E975D-00EF-49F7-9C1D-0F7D8D6A48EC}" name="Tabela1347" displayName="Tabela1347" ref="B37:G42" totalsRowCount="1">
-  <autoFilter ref="B37:G41" xr:uid="{5060DFAE-922D-4409-88FA-9A6AF9996CC5}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{076E975D-00EF-49F7-9C1D-0F7D8D6A48EC}" name="Tabela1347" displayName="Tabela1347" ref="B37:K42" totalsRowCount="1">
+  <autoFilter ref="B37:K41" xr:uid="{5060DFAE-922D-4409-88FA-9A6AF9996CC5}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{BD7122C7-EC06-4D48-A1FD-36F88DBCB289}" name="iteration"/>
-    <tableColumn id="2" xr3:uid="{9A38B6C9-1857-4BBA-BB04-B306AE5DDFEE}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="5">
+    <tableColumn id="2" xr3:uid="{9A38B6C9-1857-4BBA-BB04-B306AE5DDFEE}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="18">
       <totalsRowFormula>SUM(Tabela1347[imagens manuais])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{660CC83C-EE5F-4272-9EDB-733E2285553F}" name="imagens não anotadas" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3DB1E6D0-A901-407A-A2A1-AF2B6750139E}" name="tempo de anotação (m)" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{660CC83C-EE5F-4272-9EDB-733E2285553F}" name="imagens não anotadas" dataDxfId="59" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3DB1E6D0-A901-407A-A2A1-AF2B6750139E}" name="tempo de anotação (m)" dataDxfId="58" totalsRowDxfId="16"/>
     <tableColumn id="5" xr3:uid="{A96C8646-0E67-4EB2-8851-34114A20059A}" name="diff"/>
-    <tableColumn id="6" xr3:uid="{38FECE0E-A028-4D17-82EB-9C9D94B0D585}" name="diff (%)" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{38FECE0E-A028-4D17-82EB-9C9D94B0D585}" name="diff (%)" dataDxfId="57">
       <calculatedColumnFormula>Tabela1347[[#This Row],[diff]]/D37</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0F596BAF-BF92-497E-97CB-203577965E59}" name="auto" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela1347[auto])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{0215E9F3-3B77-45A1-BF76-480D89DA2711}" name="manual %" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5">
+      <calculatedColumnFormula>C38/$D$38</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1347[manual %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B304CF32-D7EC-40E9-8291-CE5927A86B74}" name="auto %" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="4">
+      <calculatedColumnFormula>H38/$D$38</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1347[auto %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C82CE00F-DE0A-4D2A-98CF-9F046A22896F}" name="annotated %" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="3">
+      <calculatedColumnFormula>(C38+H38)/$D$38</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1347[annotated %])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ADF05A63-7F34-4FC5-A748-646896F4183D}" name="Tabela13475" displayName="Tabela13475" ref="B45:K50" totalsRowCount="1">
+  <autoFilter ref="B45:K49" xr:uid="{D5AB1257-9A36-4C5D-B45A-59BFF466CE42}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{467419DF-2553-41ED-9321-412B63EE0E00}" name="iteration"/>
+    <tableColumn id="2" xr3:uid="{972F52F6-8632-4E7F-9D41-FB78184FBE17}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="12">
+      <totalsRowFormula>SUM(Tabela13475[imagens manuais])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{17EAADE4-DF49-49BD-A1E2-2A06B188422F}" name="imagens não anotadas" dataDxfId="35" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{41D0D2A1-37EB-4B21-B2BA-4D807AEA4EE0}" name="tempo de anotação (m)" dataDxfId="34" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{2E3DD312-C4CF-46A9-AEED-F0D1A14C8960}" name="diff"/>
+    <tableColumn id="6" xr3:uid="{EA0EB7B6-79C6-4F09-B53E-9AD476A20453}" name="diff (%)" dataDxfId="33">
+      <calculatedColumnFormula>Tabela13475[[#This Row],[diff]]/D45</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{EF216BE7-BA1F-4382-BB72-F45BEE3E0476}" name="auto" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabela13475[auto])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AF92695F-06A6-4682-9DD3-B920AEF168F9}" name="manual %" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2">
+      <calculatedColumnFormula>C46/$D$46</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela13475[manual %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7D591D62-8647-44ED-9482-63F0254A25B5}" name="auto %" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
+      <calculatedColumnFormula>H46/$D$46</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela13475[auto %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8C7D4291-21F3-4128-A1BD-63295B0E84B8}" name="annotated %" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="0">
+      <calculatedColumnFormula>(C46+H46)/$D$46</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela13475[annotated %])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1646,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1658,22 +1886,24 @@
     <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1684,11 +1914,23 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1707,8 +1949,23 @@
       <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$D$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1722,15 +1979,30 @@
         <v>6</v>
       </c>
       <c r="F4" s="2">
-        <f>D3-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>122777</v>
+        <f>D3-Tabela1[[#This Row],[manual]]-Tabela1[[#This Row],[auto]]</f>
+        <v>-6439</v>
       </c>
       <c r="G4" s="3">
         <f>Tabela1[[#This Row],[diff]]/D3</f>
+        <v>-5.2155811335120733E-2</v>
+      </c>
+      <c r="H4">
+        <v>122777</v>
+      </c>
+      <c r="I4" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$D$3</f>
+        <v>5.766380197153665E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$D$3</f>
         <v>0.99449200936358406</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$D$3</f>
+        <v>1.0521558113351208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1745,31 +2017,66 @@
         <v>9.85</v>
       </c>
       <c r="F5" s="2">
-        <f>D4-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <f>D4-Tabela1[[#This Row],[unlabeled]]</f>
         <v>680</v>
       </c>
       <c r="G5" s="3">
         <f>Tabela1[[#This Row],[diff]]/D4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5" s="2">
+        <f>D3-H4</f>
+        <v>680</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$D$3</f>
+        <v>5.5079906364159182E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$D$3</f>
+        <v>5.5079906364159182E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$D$3</f>
+        <v>1.1015981272831836E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <f>SUM(Tabela1[imagens manuais])</f>
+        <f>SUM(Tabela1[manual])</f>
         <v>7799</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6" s="1">
+        <f>SUM(Tabela1[tempo de anotação (m)])</f>
+        <v>9.85</v>
+      </c>
+      <c r="H6">
+        <f>SUM(Tabela1[auto])</f>
+        <v>123457</v>
+      </c>
+      <c r="I6" s="3">
+        <f>SUM(Tabela1[manual %])</f>
+        <v>6.3171792607952568E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <f>SUM(Tabela1[auto %])</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <f>SUM(Tabela1[annotated %])</f>
+        <v>1.0631717926079527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1809,7 +2116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1831,7 +2138,7 @@
         <v>0.9929287120211896</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2</v>
       </c>
@@ -1854,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1865,12 +2172,12 @@
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1889,8 +2196,20 @@
       <c r="G16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1909,8 +2228,23 @@
       <c r="G17" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f>C17/$D$17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f>H17/$D$17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f>(C17+H17)/$D$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1931,8 +2265,23 @@
         <f>Tabela134[[#This Row],[diff]]/D17</f>
         <v>0.91124845087763351</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>112501</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" ref="I18:I22" si="0">C18/$D$17</f>
+        <v>5.766380197153665E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" ref="J18:J22" si="1">H18/$D$17</f>
+        <v>0.91125655086386348</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" ref="K18:K22" si="2">(C18+H18)/$D$17</f>
+        <v>0.96892035283540023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>2</v>
       </c>
@@ -1954,8 +2303,23 @@
         <f>Tabela134[[#This Row],[diff]]/D18</f>
         <v>0.10011864561467555</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="2">
+        <v>998</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7479851284252819E-4</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0837862575633621E-3</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9585847704058905E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1977,8 +2341,23 @@
         <f>Tabela134[[#This Row],[diff]]/D19</f>
         <v>0.54026369168357002</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>5227</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0999862300234094E-4</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2338628024332359E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3148626647334702E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>4</v>
       </c>
@@ -2000,8 +2379,23 @@
         <f>Tabela134[[#This Row],[diff]]/D20</f>
         <v>0.29208030002206042</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1227</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0999862300234094E-4</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9386831042387221E-3</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0748681727241064E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>5</v>
       </c>
@@ -2023,8 +2417,23 @@
         <f>Tabela134[[#This Row],[diff]]/D21</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5992855812145121E-2</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5992855812145121E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2034,13 +2443,29 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <f>SUM(Tabela134[auto])</f>
+        <v>119953</v>
+      </c>
+      <c r="I23" s="3">
+        <f>SUM(Tabela134[manual %])</f>
+        <v>8.6151453542528983E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <f>SUM(Tabela134[auto %])</f>
+        <v>0.97161764824999786</v>
+      </c>
+      <c r="K23" s="3">
+        <f>SUM(Tabela134[annotated %])</f>
+        <v>1.057769101792527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -2059,8 +2484,20 @@
       <c r="G27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0</v>
       </c>
@@ -2079,8 +2516,23 @@
       <c r="G28" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" ref="I28:I32" si="3">C28/$D$28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" ref="J28:J32" si="4">H28/$D$28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" ref="K28:K32" si="5">(C28+H28)/$D$28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1</v>
       </c>
@@ -2101,8 +2553,23 @@
         <f>Tabela1346[[#This Row],[diff]]/D28</f>
         <v>0.95553107559717143</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>117567</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="3"/>
+        <v>5.766380197153665E-2</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95229108110516214</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0099548830766987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2</v>
       </c>
@@ -2124,8 +2591,23 @@
         <f>Tabela1346[[#This Row],[diff]]/D29</f>
         <v>0.13897996357012751</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>663</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="3"/>
+        <v>8.0999862300234094E-4</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="4"/>
+        <v>5.3702908705055199E-3</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="5"/>
+        <v>6.1802894935078607E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>3</v>
       </c>
@@ -2147,8 +2629,23 @@
         <f>Tabela1346[[#This Row],[diff]]/D30</f>
         <v>0.46414216204781045</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>2097</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="3"/>
+        <v>8.0999862300234094E-4</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.698567112435909E-2</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.779566974736143E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2173,21 +2670,52 @@
         <f>Tabela1346[[#This Row],[diff]]/D31</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0517265120649296E-2</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0517265120649296E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C33" s="2">
         <f>SUM(Tabela1346[imagens manuais])</f>
         <v>9852</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <f>SUM(Tabela1346[auto])</f>
+        <v>120327</v>
+      </c>
+      <c r="I33" s="3">
+        <f>SUM(Tabela1346[manual %])</f>
+        <v>7.9801064338190633E-2</v>
+      </c>
+      <c r="J33" s="3">
+        <f>SUM(Tabela1346[auto %])</f>
+        <v>0.97464704310002681</v>
+      </c>
+      <c r="K33" s="3">
+        <f>SUM(Tabela1346[annotated %])</f>
+        <v>1.0544481074382173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -2206,11 +2734,20 @@
       <c r="G37" t="s">
         <v>5</v>
       </c>
-      <c r="I37">
-        <v>5594937</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0</v>
       </c>
@@ -2229,8 +2766,23 @@
       <c r="G38" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" ref="I38:I41" si="6">C38/$D$38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" ref="J38:J41" si="7">H38/$D$38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" ref="K38:K41" si="8">(C38+H38)/$D$38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>1</v>
       </c>
@@ -2238,21 +2790,37 @@
         <v>7119</v>
       </c>
       <c r="D39" s="2">
-        <v>10051</v>
+        <f>D38-Tabela1347[[#This Row],[imagens manuais]]-Tabela1347[[#This Row],[auto]]</f>
+        <v>2932</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="2">
         <f>D38-Tabela1347[[#This Row],[imagens não anotadas]]</f>
-        <v>113406</v>
+        <v>120525</v>
       </c>
       <c r="G39" s="3">
         <f>Tabela1347[[#This Row],[diff]]/D38</f>
+        <v>0.97625084037357135</v>
+      </c>
+      <c r="H39">
+        <v>113406</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="6"/>
+        <v>5.766380197153665E-2</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="7"/>
         <v>0.91858703840203471</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K39" s="3">
+        <f t="shared" si="8"/>
+        <v>0.97625084037357135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>2</v>
       </c>
@@ -2260,7 +2828,8 @@
         <v>100</v>
       </c>
       <c r="D40" s="2">
-        <v>2606</v>
+        <f>D39-Tabela1347[[#This Row],[imagens manuais]]-Tabela1347[[#This Row],[auto]]</f>
+        <v>-4513</v>
       </c>
       <c r="E40" s="1">
         <f>3+30/60</f>
@@ -2272,10 +2841,25 @@
       </c>
       <c r="G40" s="3">
         <f>Tabela1347[[#This Row],[diff]]/D39</f>
-        <v>0.740722316187444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.5392223738062758</v>
+      </c>
+      <c r="H40">
+        <v>7345</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="6"/>
+        <v>8.0999862300234094E-4</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="7"/>
+        <v>5.9494398859521937E-2</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="8"/>
+        <v>6.030439748252428E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>3</v>
       </c>
@@ -2283,7 +2867,8 @@
         <v>2606</v>
       </c>
       <c r="D41" s="2">
-        <v>0</v>
+        <f>D40-Tabela1347[[#This Row],[imagens manuais]]-Tabela1347[[#This Row],[auto]]</f>
+        <v>-7119</v>
       </c>
       <c r="E41" s="1">
         <f>33+23/60</f>
@@ -2295,10 +2880,25 @@
       </c>
       <c r="G41" s="3">
         <f>Tabela1347[[#This Row],[diff]]/D40</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5774429426102371</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1108564115441004E-2</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="8"/>
+        <v>2.1108564115441004E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2308,6 +2908,243 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
+      <c r="H42">
+        <f>SUM(Tabela1347[auto])</f>
+        <v>120751</v>
+      </c>
+      <c r="I42" s="3">
+        <f>SUM(Tabela1347[manual %])</f>
+        <v>7.9582364709979994E-2</v>
+      </c>
+      <c r="J42" s="3">
+        <f>SUM(Tabela1347[auto %])</f>
+        <v>0.97808143726155661</v>
+      </c>
+      <c r="K42" s="3">
+        <f>SUM(Tabela1347[annotated %])</f>
+        <v>1.0576638019715365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>123457</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" ref="I46:I49" si="9">C46/$D$46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" ref="J46:J49" si="10">H46/$D$46</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" ref="K46:K49" si="11">(C46+H46)/$D$46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7119</v>
+      </c>
+      <c r="D47" s="2">
+        <f>D46-Tabela13475[[#This Row],[imagens manuais]]-Tabela13475[[#This Row],[auto]]</f>
+        <v>-2361</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2">
+        <f>D46-Tabela13475[[#This Row],[imagens não anotadas]]</f>
+        <v>125818</v>
+      </c>
+      <c r="G47" s="3">
+        <f>Tabela13475[[#This Row],[diff]]/D46</f>
+        <v>1.0191240674890854</v>
+      </c>
+      <c r="H47">
+        <v>118699</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="9"/>
+        <v>5.766380197153665E-2</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9614602655175486</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0191240674890854</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2">
+        <f>D47-Tabela13475[[#This Row],[imagens manuais]]-Tabela13475[[#This Row],[auto]]</f>
+        <v>-4980</v>
+      </c>
+      <c r="E48" s="1">
+        <f>3+30/60</f>
+        <v>3.5</v>
+      </c>
+      <c r="F48" s="2">
+        <f>D47-Tabela13475[[#This Row],[imagens não anotadas]]</f>
+        <v>2619</v>
+      </c>
+      <c r="G48" s="3">
+        <f>Tabela13475[[#This Row],[diff]]/D47</f>
+        <v>-1.1092757306226175</v>
+      </c>
+      <c r="H48">
+        <v>2519</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="9"/>
+        <v>8.0999862300234094E-4</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="10"/>
+        <v>2.0403865313428967E-2</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="11"/>
+        <v>2.1213863936431307E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2139</v>
+      </c>
+      <c r="D49" s="2">
+        <f>D48-Tabela13475[[#This Row],[imagens manuais]]-Tabela13475[[#This Row],[auto]]</f>
+        <v>-7119</v>
+      </c>
+      <c r="E49" s="1">
+        <f>33+23/60</f>
+        <v>33.383333333333333</v>
+      </c>
+      <c r="F49" s="2">
+        <f>D48-Tabela13475[[#This Row],[imagens não anotadas]]</f>
+        <v>2139</v>
+      </c>
+      <c r="G49" s="3">
+        <f>Tabela13475[[#This Row],[diff]]/D48</f>
+        <v>-0.42951807228915662</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7325870546020073E-2</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="11"/>
+        <v>1.7325870546020073E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C50" s="2">
+        <f>SUM(Tabela13475[imagens manuais])</f>
+        <v>9358</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
+      <c r="H50">
+        <f>SUM(Tabela13475[auto])</f>
+        <v>121218</v>
+      </c>
+      <c r="I50" s="3">
+        <f>SUM(Tabela13475[manual %])</f>
+        <v>7.5799671140559063E-2</v>
+      </c>
+      <c r="J50" s="3">
+        <f>SUM(Tabela13475[auto %])</f>
+        <v>0.98186413083097757</v>
+      </c>
+      <c r="K50" s="3">
+        <f>SUM(Tabela13475[annotated %])</f>
+        <v>1.0576638019715365</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H52" s="2">
+        <f>Tabela13475[[#Totals],[auto]]+Tabela13475[[#Totals],[imagens manuais]]</f>
+        <v>130576</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2315,12 +3152,13 @@
   <ignoredErrors>
     <ignoredError sqref="G3" calculatedColumn="1"/>
   </ignoredErrors>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
